--- a/individual_case_outputs/avey/344.xlsx
+++ b/individual_case_outputs/avey/344.xlsx
@@ -667,7 +667,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>nasolacrimal duct obstruction</t>
+          <t>dacryocystitis</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>nasolacrimal duct obstruction</t>
+          <t>acute dacryocystitis</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>blepharitis</t>
+          <t>stye</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -829,7 +829,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>blepharitis</t>
+          <t>dry eye disease</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>blepharitis</t>
+          <t>stye</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -918,7 +918,7 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>nasolacrimal duct obstruction</t>
+          <t>dacryocystitis</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
